--- a/biology/Botanique/Cannabis_au_Danemark/Cannabis_au_Danemark.xlsx
+++ b/biology/Botanique/Cannabis_au_Danemark/Cannabis_au_Danemark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabis au Danemark tombe sous le coup de la loi du 31 août 1993 sur les substances euphorisantes, même si cette loi n’interdit pas explicitement la consommation, elle en interdit toutes les autres opérations (vente, livraison, transformation, possession…).
 Ainsi, la possession simple à des fins personnelles est punie par une amende pouvant être accompagnée ou remplacée par une peine de prison qui peut aller jusqu'à deux ans (en fonction de la quantité) et la possession à des fins de revente tombe sous le coup du Code pénal et peut atteindre les dix ans d'emprisonnement s'il existe des circonstances aggravantes (approvisionnement de mineurs).
